--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/667a3b4ad8d03944/Documentos/GitHub/git-101/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EF80FA6-84E3-4C23-9611-21C44842BD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{0EF80FA6-84E3-4C23-9611-21C44842BD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5665E3A4-F5B4-4539-BF96-541266BC3876}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{B9E0B591-BD9F-4C20-8F64-4C84E3CA1A06}"/>
   </bookViews>
@@ -34,9 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Teste para ver se fgunciona</t>
+  </si>
+  <si>
+    <t>Alteracao 1 feita</t>
   </si>
 </sst>
 </file>
@@ -388,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40C8781-E1C3-4FB2-87F6-6D21738460EA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,6 +404,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/667a3b4ad8d03944/Documentos/GitHub/git-101/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{0EF80FA6-84E3-4C23-9611-21C44842BD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5665E3A4-F5B4-4539-BF96-541266BC3876}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{0EF80FA6-84E3-4C23-9611-21C44842BD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EE22E2F-F6EC-4B11-A507-44E7C803D63E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{B9E0B591-BD9F-4C20-8F64-4C84E3CA1A06}"/>
   </bookViews>
@@ -34,12 +34,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Teste para ver se fgunciona</t>
   </si>
   <si>
     <t>Alteracao 1 feita</t>
+  </si>
+  <si>
+    <t>|Agora com o ramo</t>
   </si>
 </sst>
 </file>
@@ -391,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40C8781-E1C3-4FB2-87F6-6D21738460EA}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,6 +412,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/667a3b4ad8d03944/Documentos/GitHub/git-101/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{0EF80FA6-84E3-4C23-9611-21C44842BD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5665E3A4-F5B4-4539-BF96-541266BC3876}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{0EF80FA6-84E3-4C23-9611-21C44842BD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2E5FCE6-B502-46E4-BABF-6457995C6899}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{B9E0B591-BD9F-4C20-8F64-4C84E3CA1A06}"/>
   </bookViews>
@@ -34,12 +34,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Teste para ver se fgunciona</t>
   </si>
   <si>
     <t>Alteracao 1 feita</t>
+  </si>
+  <si>
+    <t>oi teste</t>
   </si>
 </sst>
 </file>
@@ -394,7 +397,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,6 +405,11 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">

--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/667a3b4ad8d03944/Documentos/GitHub/git-101/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{0EF80FA6-84E3-4C23-9611-21C44842BD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EE22E2F-F6EC-4B11-A507-44E7C803D63E}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{0EF80FA6-84E3-4C23-9611-21C44842BD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2E5FCE6-B502-46E4-BABF-6457995C6899}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{B9E0B591-BD9F-4C20-8F64-4C84E3CA1A06}"/>
   </bookViews>
@@ -42,7 +42,7 @@
     <t>Alteracao 1 feita</t>
   </si>
   <si>
-    <t>|Agora com o ramo</t>
+    <t>oi teste</t>
   </si>
 </sst>
 </file>
@@ -394,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40C8781-E1C3-4FB2-87F6-6D21738460EA}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,14 +407,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/667a3b4ad8d03944/Documentos/GitHub/git-101/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{0EF80FA6-84E3-4C23-9611-21C44842BD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2E5FCE6-B502-46E4-BABF-6457995C6899}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{0EF80FA6-84E3-4C23-9611-21C44842BD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D3DFB68-7216-4FF7-9E79-40F69A1EA4AF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{B9E0B591-BD9F-4C20-8F64-4C84E3CA1A06}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Teste para ver se fgunciona</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>oi teste</t>
+  </si>
+  <si>
+    <t>ramo</t>
   </si>
 </sst>
 </file>
@@ -394,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40C8781-E1C3-4FB2-87F6-6D21738460EA}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,6 +420,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/667a3b4ad8d03944/Documentos/GitHub/git-101/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{0EF80FA6-84E3-4C23-9611-21C44842BD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2E5FCE6-B502-46E4-BABF-6457995C6899}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{0EF80FA6-84E3-4C23-9611-21C44842BD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{608AD3C1-2B8D-4FDA-8C24-916B6B0F68A7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{B9E0B591-BD9F-4C20-8F64-4C84E3CA1A06}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Teste para ver se fgunciona</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>oi teste</t>
+  </si>
+  <si>
+    <t>Alteracao no master</t>
   </si>
 </sst>
 </file>
@@ -397,7 +400,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,6 +408,11 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
